--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/13022026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/13022026.xlsx
@@ -1,117 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Evangelio y Oraciones" state="visible" r:id="rId4"/>
+    <sheet name="Evangelio y Oraciones" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
-  <si>
-    <t>NOMBRES</t>
-  </si>
-  <si>
-    <t>APELLIDO_PATERNO</t>
-  </si>
-  <si>
-    <t>APELLIDO_MATERNO</t>
-  </si>
-  <si>
-    <t>CELULAR</t>
-  </si>
-  <si>
-    <t>MAIL</t>
-  </si>
-  <si>
-    <t>CORREO</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>WHATSAPP</t>
-  </si>
-  <si>
-    <t>TEXTO_MENSAJE</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>56994148421</t>
-  </si>
-  <si>
-    <t>lucesalejandro3@gmail.com</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">viernes, 13 de febrero de 2026
-*Evangelio del Día*
-Lectura del santo evangelio según san Marcos
-Marcos 7, 31-37 En aquel tiempo, salió Jesús de la región de Tiro y vino de nuevo, por Sidón, al mar de Galilea, atravesando la región de Decápolis. Le llevaron entonces a un hombre sordo y tartamudo, y le suplicaban que le impusiera las manos. Él lo apartó a un lado de la gente, le metió los dedos en los oídos y le tocó la lengua con saliva. Después, mirando al cielo, suspiró y le dijo: "¡Effetá!" (que quiere decir "¡Ábrete!"). Al momento se le abrieron los oídos, se le soltó la traba de la lengua y empezó a hablar sin dificultad. Él les mandó que no lo dijeran a nadie; pero cuanto más se lo mandaba, ellos con más insistencia lo proclamaban; y todos estaban asombrados y decían: "¡Qué bien lo hace todo! Hace oír a los sordos y hablar a los mudos".
-*Oración de la mañana*
-Querido Jesús, en este amanecer, nos recordamos de tu milagroso poder, tal como nos recuerda el evangelio de hoy. Que tu voz que pronunció "Effetá" resuene con fuerza en nuestras almas, abriendo nuestros oídos al llamado de tu amor y soltando las trabas de nuestra lengua para proclamar tu palabra con valentía y verdad. Ayúdanos a escuchar claramente tu voz a lo largo de este día y a responder con generosidad y amor.
-Amado Padre, te agradecemos por este nuevo día, por tu constante amor y gracia en nuestras vidas. Gracias por el milagro de la vida y por la oportunidad de vivir otro día bajo tu cuidado. Ayúdanos a reflejar tu amor en cada acción y palabra, y a percibir y valorar el milagro que cada nuevo día representa.
-Dulce Espíritu Santo, te pedimos que nos guíes en este día. Que tu sabiduría nos ilumine y tu fortaleza nos sustente. Ayúdanos a ser instrumentos de tu paz y a proclamar con nuestras vidas la buena noticia de Dios. Que, a pesar de nuestras limitaciones, podamos ser un reflejo de la luz de Cristo en el mundo.
-En la confianza de tu amor y misericordia, nos encomendamos a ti en este nuevo día. Amén.</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>56973223070</t>
-  </si>
-  <si>
-    <t>Mama</t>
-  </si>
-  <si>
-    <t>56971748545</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>56931123918</t>
-  </si>
-  <si>
-    <t>Yume</t>
-  </si>
-  <si>
-    <t>584146711206</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
-      <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -135,28 +51,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,193 +456,496 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="100" style="1" customWidth="1"/>
+    <col width="20" customWidth="1" min="1" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="8"/>
+    <col width="100" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>NOMBRES</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_PATERNO</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_MATERNO</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CELULAR</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>MAIL</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>CORREO</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>SMS</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>WHATSAPP</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>TEXTO_MENSAJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="150" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56994148421</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>viernes, 13 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 31-37 En aquel tiempo, salió Jesús de la región de Tiro y vino de nuevo, por Sidón, al mar de Galilea, atravesando la región de Decápolis. Le llevaron entonces a un hombre sordo y tartamudo, y le suplicaban que le impusiera las manos. Él lo apartó a un lado de la gente, le metió los dedos en los oídos y le tocó la lengua con saliva. Después, mirando al cielo, suspiró y le dijo: "¡Effetá!" (que quiere decir "¡Ábrete!"). Al momento se le abrieron los oídos, se le soltó la traba de la lengua y empezó a hablar sin dificultad. Él les mandó que no lo dijeran a nadie; pero cuanto más se lo mandaba, ellos con más insistencia lo proclamaban; y todos estaban asombrados y decían: "¡Qué bien lo hace todo! Hace oír a los sordos y hablar a los mudos".
+*Oración de la mañana*
+Querido Jesús, en este amanecer, nos recordamos de tu milagroso poder, tal como nos recuerda el evangelio de hoy. Que tu voz que pronunció "Effetá" resuene con fuerza en nuestras almas, abriendo nuestros oídos al llamado de tu amor y soltando las trabas de nuestra lengua para proclamar tu palabra con valentía y verdad. Ayúdanos a escuchar claramente tu voz a lo largo de este día y a responder con generosidad y amor.
+Amado Padre, te agradecemos por este nuevo día, por tu constante amor y gracia en nuestras vidas. Gracias por el milagro de la vida y por la oportunidad de vivir otro día bajo tu cuidado. Ayúdanos a reflejar tu amor en cada acción y palabra, y a percibir y valorar el milagro que cada nuevo día representa.
+Dulce Espíritu Santo, te pedimos que nos guíes en este día. Que tu sabiduría nos ilumine y tu fortaleza nos sustente. Ayúdanos a ser instrumentos de tu paz y a proclamar con nuestras vidas la buena noticia de Dios. Que, a pesar de nuestras limitaciones, podamos ser un reflejo de la luz de Cristo en el mundo.
+En la confianza de tu amor y misericordia, nos encomendamos a ti en este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
+    <row r="3" ht="150" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56973223070</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>viernes, 13 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 31-37 En aquel tiempo, salió Jesús de la región de Tiro y vino de nuevo, por Sidón, al mar de Galilea, atravesando la región de Decápolis. Le llevaron entonces a un hombre sordo y tartamudo, y le suplicaban que le impusiera las manos. Él lo apartó a un lado de la gente, le metió los dedos en los oídos y le tocó la lengua con saliva. Después, mirando al cielo, suspiró y le dijo: "¡Effetá!" (que quiere decir "¡Ábrete!"). Al momento se le abrieron los oídos, se le soltó la traba de la lengua y empezó a hablar sin dificultad. Él les mandó que no lo dijeran a nadie; pero cuanto más se lo mandaba, ellos con más insistencia lo proclamaban; y todos estaban asombrados y decían: "¡Qué bien lo hace todo! Hace oír a los sordos y hablar a los mudos".
+*Oración de la mañana*
+Querido Jesús, en este amanecer, nos recordamos de tu milagroso poder, tal como nos recuerda el evangelio de hoy. Que tu voz que pronunció "Effetá" resuene con fuerza en nuestras almas, abriendo nuestros oídos al llamado de tu amor y soltando las trabas de nuestra lengua para proclamar tu palabra con valentía y verdad. Ayúdanos a escuchar claramente tu voz a lo largo de este día y a responder con generosidad y amor.
+Amado Padre, te agradecemos por este nuevo día, por tu constante amor y gracia en nuestras vidas. Gracias por el milagro de la vida y por la oportunidad de vivir otro día bajo tu cuidado. Ayúdanos a reflejar tu amor en cada acción y palabra, y a percibir y valorar el milagro que cada nuevo día representa.
+Dulce Espíritu Santo, te pedimos que nos guíes en este día. Que tu sabiduría nos ilumine y tu fortaleza nos sustente. Ayúdanos a ser instrumentos de tu paz y a proclamar con nuestras vidas la buena noticia de Dios. Que, a pesar de nuestras limitaciones, podamos ser un reflejo de la luz de Cristo en el mundo.
+En la confianza de tu amor y misericordia, nos encomendamos a ti en este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
+    <row r="4" ht="150" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mama</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56971748545</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>viernes, 13 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 31-37 En aquel tiempo, salió Jesús de la región de Tiro y vino de nuevo, por Sidón, al mar de Galilea, atravesando la región de Decápolis. Le llevaron entonces a un hombre sordo y tartamudo, y le suplicaban que le impusiera las manos. Él lo apartó a un lado de la gente, le metió los dedos en los oídos y le tocó la lengua con saliva. Después, mirando al cielo, suspiró y le dijo: "¡Effetá!" (que quiere decir "¡Ábrete!"). Al momento se le abrieron los oídos, se le soltó la traba de la lengua y empezó a hablar sin dificultad. Él les mandó que no lo dijeran a nadie; pero cuanto más se lo mandaba, ellos con más insistencia lo proclamaban; y todos estaban asombrados y decían: "¡Qué bien lo hace todo! Hace oír a los sordos y hablar a los mudos".
+*Oración de la mañana*
+Querido Jesús, en este amanecer, nos recordamos de tu milagroso poder, tal como nos recuerda el evangelio de hoy. Que tu voz que pronunció "Effetá" resuene con fuerza en nuestras almas, abriendo nuestros oídos al llamado de tu amor y soltando las trabas de nuestra lengua para proclamar tu palabra con valentía y verdad. Ayúdanos a escuchar claramente tu voz a lo largo de este día y a responder con generosidad y amor.
+Amado Padre, te agradecemos por este nuevo día, por tu constante amor y gracia en nuestras vidas. Gracias por el milagro de la vida y por la oportunidad de vivir otro día bajo tu cuidado. Ayúdanos a reflejar tu amor en cada acción y palabra, y a percibir y valorar el milagro que cada nuevo día representa.
+Dulce Espíritu Santo, te pedimos que nos guíes en este día. Que tu sabiduría nos ilumine y tu fortaleza nos sustente. Ayúdanos a ser instrumentos de tu paz y a proclamar con nuestras vidas la buena noticia de Dios. Que, a pesar de nuestras limitaciones, podamos ser un reflejo de la luz de Cristo en el mundo.
+En la confianza de tu amor y misericordia, nos encomendamos a ti en este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="4" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
+    <row r="5" ht="150" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56931123918</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>viernes, 13 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 31-37 En aquel tiempo, salió Jesús de la región de Tiro y vino de nuevo, por Sidón, al mar de Galilea, atravesando la región de Decápolis. Le llevaron entonces a un hombre sordo y tartamudo, y le suplicaban que le impusiera las manos. Él lo apartó a un lado de la gente, le metió los dedos en los oídos y le tocó la lengua con saliva. Después, mirando al cielo, suspiró y le dijo: "¡Effetá!" (que quiere decir "¡Ábrete!"). Al momento se le abrieron los oídos, se le soltó la traba de la lengua y empezó a hablar sin dificultad. Él les mandó que no lo dijeran a nadie; pero cuanto más se lo mandaba, ellos con más insistencia lo proclamaban; y todos estaban asombrados y decían: "¡Qué bien lo hace todo! Hace oír a los sordos y hablar a los mudos".
+*Oración de la mañana*
+Querido Jesús, en este amanecer, nos recordamos de tu milagroso poder, tal como nos recuerda el evangelio de hoy. Que tu voz que pronunció "Effetá" resuene con fuerza en nuestras almas, abriendo nuestros oídos al llamado de tu amor y soltando las trabas de nuestra lengua para proclamar tu palabra con valentía y verdad. Ayúdanos a escuchar claramente tu voz a lo largo de este día y a responder con generosidad y amor.
+Amado Padre, te agradecemos por este nuevo día, por tu constante amor y gracia en nuestras vidas. Gracias por el milagro de la vida y por la oportunidad de vivir otro día bajo tu cuidado. Ayúdanos a reflejar tu amor en cada acción y palabra, y a percibir y valorar el milagro que cada nuevo día representa.
+Dulce Espíritu Santo, te pedimos que nos guíes en este día. Que tu sabiduría nos ilumine y tu fortaleza nos sustente. Ayúdanos a ser instrumentos de tu paz y a proclamar con nuestras vidas la buena noticia de Dios. Que, a pesar de nuestras limitaciones, podamos ser un reflejo de la luz de Cristo en el mundo.
+En la confianza de tu amor y misericordia, nos encomendamos a ti en este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="5" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
+    <row r="6" ht="150" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Yume</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>584146711206</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>viernes, 13 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 31-37 En aquel tiempo, salió Jesús de la región de Tiro y vino de nuevo, por Sidón, al mar de Galilea, atravesando la región de Decápolis. Le llevaron entonces a un hombre sordo y tartamudo, y le suplicaban que le impusiera las manos. Él lo apartó a un lado de la gente, le metió los dedos en los oídos y le tocó la lengua con saliva. Después, mirando al cielo, suspiró y le dijo: "¡Effetá!" (que quiere decir "¡Ábrete!"). Al momento se le abrieron los oídos, se le soltó la traba de la lengua y empezó a hablar sin dificultad. Él les mandó que no lo dijeran a nadie; pero cuanto más se lo mandaba, ellos con más insistencia lo proclamaban; y todos estaban asombrados y decían: "¡Qué bien lo hace todo! Hace oír a los sordos y hablar a los mudos".
+*Oración de la mañana*
+Querido Jesús, en este amanecer, nos recordamos de tu milagroso poder, tal como nos recuerda el evangelio de hoy. Que tu voz que pronunció "Effetá" resuene con fuerza en nuestras almas, abriendo nuestros oídos al llamado de tu amor y soltando las trabas de nuestra lengua para proclamar tu palabra con valentía y verdad. Ayúdanos a escuchar claramente tu voz a lo largo de este día y a responder con generosidad y amor.
+Amado Padre, te agradecemos por este nuevo día, por tu constante amor y gracia en nuestras vidas. Gracias por el milagro de la vida y por la oportunidad de vivir otro día bajo tu cuidado. Ayúdanos a reflejar tu amor en cada acción y palabra, y a percibir y valorar el milagro que cada nuevo día representa.
+Dulce Espíritu Santo, te pedimos que nos guíes en este día. Que tu sabiduría nos ilumine y tu fortaleza nos sustente. Ayúdanos a ser instrumentos de tu paz y a proclamar con nuestras vidas la buena noticia de Dios. Que, a pesar de nuestras limitaciones, podamos ser un reflejo de la luz de Cristo en el mundo.
+En la confianza de tu amor y misericordia, nos encomendamos a ti en este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="6" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mariangely</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56972028078</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mariangelygonzalez14@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>viernes, 13 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 31-37 En aquel tiempo, salió Jesús de la región de Tiro y vino de nuevo, por Sidón, al mar de Galilea, atravesando la región de Decápolis. Le llevaron entonces a un hombre sordo y tartamudo, y le suplicaban que le impusiera las manos. Él lo apartó a un lado de la gente, le metió los dedos en los oídos y le tocó la lengua con saliva. Después, mirando al cielo, suspiró y le dijo: "¡Effetá!" (que quiere decir "¡Ábrete!"). Al momento se le abrieron los oídos, se le soltó la traba de la lengua y empezó a hablar sin dificultad. Él les mandó que no lo dijeran a nadie; pero cuanto más se lo mandaba, ellos con más insistencia lo proclamaban; y todos estaban asombrados y decían: "¡Qué bien lo hace todo! Hace oír a los sordos y hablar a los mudos".
+*Oración de la mañana*
+Querido Jesús, en este amanecer, nos recordamos de tu milagroso poder, tal como nos recuerda el evangelio de hoy. Que tu voz que pronunció "Effetá" resuene con fuerza en nuestras almas, abriendo nuestros oídos al llamado de tu amor y soltando las trabas de nuestra lengua para proclamar tu palabra con valentía y verdad. Ayúdanos a escuchar claramente tu voz a lo largo de este día y a responder con generosidad y amor.
+Amado Padre, te agradecemos por este nuevo día, por tu constante amor y gracia en nuestras vidas. Gracias por el milagro de la vida y por la oportunidad de vivir otro día bajo tu cuidado. Ayúdanos a reflejar tu amor en cada acción y palabra, y a percibir y valorar el milagro que cada nuevo día representa.
+Dulce Espíritu Santo, te pedimos que nos guíes en este día. Que tu sabiduría nos ilumine y tu fortaleza nos sustente. Ayúdanos a ser instrumentos de tu paz y a proclamar con nuestras vidas la buena noticia de Dios. Que, a pesar de nuestras limitaciones, podamos ser un reflejo de la luz de Cristo en el mundo.
+En la confianza de tu amor y misericordia, nos encomendamos a ti en este nuevo día. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ALEJANDRO MANUEL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LUCES</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34672527995</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>alejandroluces5515@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>viernes, 13 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 31-37 En aquel tiempo, salió Jesús de la región de Tiro y vino de nuevo, por Sidón, al mar de Galilea, atravesando la región de Decápolis. Le llevaron entonces a un hombre sordo y tartamudo, y le suplicaban que le impusiera las manos. Él lo apartó a un lado de la gente, le metió los dedos en los oídos y le tocó la lengua con saliva. Después, mirando al cielo, suspiró y le dijo: "¡Effetá!" (que quiere decir "¡Ábrete!"). Al momento se le abrieron los oídos, se le soltó la traba de la lengua y empezó a hablar sin dificultad. Él les mandó que no lo dijeran a nadie; pero cuanto más se lo mandaba, ellos con más insistencia lo proclamaban; y todos estaban asombrados y decían: "¡Qué bien lo hace todo! Hace oír a los sordos y hablar a los mudos".
+*Oración de la mañana*
+Querido Jesús, en este amanecer, nos recordamos de tu milagroso poder, tal como nos recuerda el evangelio de hoy. Que tu voz que pronunció "Effetá" resuene con fuerza en nuestras almas, abriendo nuestros oídos al llamado de tu amor y soltando las trabas de nuestra lengua para proclamar tu palabra con valentía y verdad. Ayúdanos a escuchar claramente tu voz a lo largo de este día y a responder con generosidad y amor.
+Amado Padre, te agradecemos por este nuevo día, por tu constante amor y gracia en nuestras vidas. Gracias por el milagro de la vida y por la oportunidad de vivir otro día bajo tu cuidado. Ayúdanos a reflejar tu amor en cada acción y palabra, y a percibir y valorar el milagro que cada nuevo día representa.
+Dulce Espíritu Santo, te pedimos que nos guíes en este día. Que tu sabiduría nos ilumine y tu fortaleza nos sustente. Ayúdanos a ser instrumentos de tu paz y a proclamar con nuestras vidas la buena noticia de Dios. Que, a pesar de nuestras limitaciones, podamos ser un reflejo de la luz de Cristo en el mundo.
+En la confianza de tu amor y misericordia, nos encomendamos a ti en este nuevo día. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marianny</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56967970252</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>marikaro2508@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>viernes, 13 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 31-37 En aquel tiempo, salió Jesús de la región de Tiro y vino de nuevo, por Sidón, al mar de Galilea, atravesando la región de Decápolis. Le llevaron entonces a un hombre sordo y tartamudo, y le suplicaban que le impusiera las manos. Él lo apartó a un lado de la gente, le metió los dedos en los oídos y le tocó la lengua con saliva. Después, mirando al cielo, suspiró y le dijo: "¡Effetá!" (que quiere decir "¡Ábrete!"). Al momento se le abrieron los oídos, se le soltó la traba de la lengua y empezó a hablar sin dificultad. Él les mandó que no lo dijeran a nadie; pero cuanto más se lo mandaba, ellos con más insistencia lo proclamaban; y todos estaban asombrados y decían: "¡Qué bien lo hace todo! Hace oír a los sordos y hablar a los mudos".
+*Oración de la mañana*
+Querido Jesús, en este amanecer, nos recordamos de tu milagroso poder, tal como nos recuerda el evangelio de hoy. Que tu voz que pronunció "Effetá" resuene con fuerza en nuestras almas, abriendo nuestros oídos al llamado de tu amor y soltando las trabas de nuestra lengua para proclamar tu palabra con valentía y verdad. Ayúdanos a escuchar claramente tu voz a lo largo de este día y a responder con generosidad y amor.
+Amado Padre, te agradecemos por este nuevo día, por tu constante amor y gracia en nuestras vidas. Gracias por el milagro de la vida y por la oportunidad de vivir otro día bajo tu cuidado. Ayúdanos a reflejar tu amor en cada acción y palabra, y a percibir y valorar el milagro que cada nuevo día representa.
+Dulce Espíritu Santo, te pedimos que nos guíes en este día. Que tu sabiduría nos ilumine y tu fortaleza nos sustente. Ayúdanos a ser instrumentos de tu paz y a proclamar con nuestras vidas la buena noticia de Dios. Que, a pesar de nuestras limitaciones, podamos ser un reflejo de la luz de Cristo en el mundo.
+En la confianza de tu amor y misericordia, nos encomendamos a ti en este nuevo día. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Milagros</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56936637515</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Milagrosghurtado@gmail.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>viernes, 13 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 31-37 En aquel tiempo, salió Jesús de la región de Tiro y vino de nuevo, por Sidón, al mar de Galilea, atravesando la región de Decápolis. Le llevaron entonces a un hombre sordo y tartamudo, y le suplicaban que le impusiera las manos. Él lo apartó a un lado de la gente, le metió los dedos en los oídos y le tocó la lengua con saliva. Después, mirando al cielo, suspiró y le dijo: "¡Effetá!" (que quiere decir "¡Ábrete!"). Al momento se le abrieron los oídos, se le soltó la traba de la lengua y empezó a hablar sin dificultad. Él les mandó que no lo dijeran a nadie; pero cuanto más se lo mandaba, ellos con más insistencia lo proclamaban; y todos estaban asombrados y decían: "¡Qué bien lo hace todo! Hace oír a los sordos y hablar a los mudos".
+*Oración de la mañana*
+Querido Jesús, en este amanecer, nos recordamos de tu milagroso poder, tal como nos recuerda el evangelio de hoy. Que tu voz que pronunció "Effetá" resuene con fuerza en nuestras almas, abriendo nuestros oídos al llamado de tu amor y soltando las trabas de nuestra lengua para proclamar tu palabra con valentía y verdad. Ayúdanos a escuchar claramente tu voz a lo largo de este día y a responder con generosidad y amor.
+Amado Padre, te agradecemos por este nuevo día, por tu constante amor y gracia en nuestras vidas. Gracias por el milagro de la vida y por la oportunidad de vivir otro día bajo tu cuidado. Ayúdanos a reflejar tu amor en cada acción y palabra, y a percibir y valorar el milagro que cada nuevo día representa.
+Dulce Espíritu Santo, te pedimos que nos guíes en este día. Que tu sabiduría nos ilumine y tu fortaleza nos sustente. Ayúdanos a ser instrumentos de tu paz y a proclamar con nuestras vidas la buena noticia de Dios. Que, a pesar de nuestras limitaciones, podamos ser un reflejo de la luz de Cristo en el mundo.
+En la confianza de tu amor y misericordia, nos encomendamos a ti en este nuevo día. Amén.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>